--- a/ToM/compVsMimic_Etude/EtudeFinale/satRestaurants.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/satRestaurants.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Discolog\ToM\compVsMimic_Etude\EtudeFinale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3947B7B6-902A-49D2-8668-99FEAF72F1F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="restaurantsSat" sheetId="1" r:id="rId1"/>
     <sheet name="moyenne" sheetId="2" r:id="rId2"/>
     <sheet name="Resultats" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -74,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -136,12 +142,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -154,6 +163,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800"/>
+              <a:t>Gain commun de l'option choisie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -175,6 +239,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -204,6 +277,19 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -217,6 +303,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3310-4B26-AA7D-F4ED94294F04}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -232,6 +323,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -261,6 +361,19 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -274,6 +387,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3310-4B26-AA7D-F4ED94294F04}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -289,6 +407,17 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
@@ -318,6 +447,19 @@
                 </c:numCache>
               </c:numRef>
             </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -331,6 +473,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3310-4B26-AA7D-F4ED94294F04}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -340,7 +487,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="75703808"/>
         <c:axId val="526260416"/>
       </c:barChart>
@@ -349,9 +497,9 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="526260416"/>
@@ -365,28 +513,129 @@
         <c:axId val="526260416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="75703808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -395,24 +644,573 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -473,7 +1271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +1304,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,6 +1356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -716,20 +1548,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375"/>
-    <col min="2" max="7" width="12.5703125"/>
+    <col min="1" max="1" width="2.71875"/>
+    <col min="2" max="7" width="12.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>17</v>
       </c>
@@ -775,7 +1607,7 @@
         <v>9.1666668653488201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>19</v>
       </c>
@@ -798,7 +1630,7 @@
         <v>0.72916668653488204</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20</v>
       </c>
@@ -821,7 +1653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>21</v>
       </c>
@@ -844,7 +1676,7 @@
         <v>0.29166668653488198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>23</v>
       </c>
@@ -867,7 +1699,7 @@
         <v>0.34166666865348799</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>24</v>
       </c>
@@ -890,7 +1722,7 @@
         <v>0.45833331346511802</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>25</v>
       </c>
@@ -913,7 +1745,7 @@
         <v>0.40000000596046498</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>26</v>
       </c>
@@ -936,7 +1768,7 @@
         <v>0.30000001192092901</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>27</v>
       </c>
@@ -959,7 +1791,7 @@
         <v>0.77083331346511796</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>28</v>
       </c>
@@ -982,7 +1814,7 @@
         <v>0.55000001192092896</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>29</v>
       </c>
@@ -1005,7 +1837,7 @@
         <v>9.1666668653488201E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1028,7 +1860,7 @@
         <v>0.42916667461395303</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>31</v>
       </c>
@@ -1051,7 +1883,7 @@
         <v>0.420833349227905</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1074,7 +1906,7 @@
         <v>0.33750000596046398</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>33</v>
       </c>
@@ -1097,7 +1929,7 @@
         <v>0.29166668653488198</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>34</v>
       </c>
@@ -1120,7 +1952,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35</v>
       </c>
@@ -1143,7 +1975,7 @@
         <v>0.41249999403953502</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>36</v>
       </c>
@@ -1166,7 +1998,7 @@
         <v>0.233333334326744</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>37</v>
       </c>
@@ -1189,7 +2021,7 @@
         <v>0.20833332836627999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1212,7 +2044,7 @@
         <v>0.35416668653488198</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>39</v>
       </c>
@@ -1235,7 +2067,7 @@
         <v>0.27500000596046398</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1258,7 +2090,7 @@
         <v>0.41666665673255898</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>41</v>
       </c>
@@ -1281,7 +2113,7 @@
         <v>0.54583334922790505</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>42</v>
       </c>
@@ -1304,7 +2136,7 @@
         <v>0.64583331346511796</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>44</v>
       </c>
@@ -1327,7 +2159,7 @@
         <v>0.266666650772095</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>45</v>
       </c>
@@ -1350,7 +2182,7 @@
         <v>0.133333325386047</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>46</v>
       </c>
@@ -1373,7 +2205,7 @@
         <v>0.34166663885116599</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>47</v>
       </c>
@@ -1396,7 +2228,7 @@
         <v>0.22499999403953599</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>48</v>
       </c>
@@ -1419,7 +2251,7 @@
         <v>0.24583332240581501</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>49</v>
       </c>
@@ -1442,7 +2274,7 @@
         <v>0.39583331346511802</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>50</v>
       </c>
@@ -1465,7 +2297,7 @@
         <v>0.15416666865348799</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>51</v>
       </c>
@@ -1488,7 +2320,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>52</v>
       </c>
@@ -1511,7 +2343,7 @@
         <v>0.112499997019768</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>53</v>
       </c>
@@ -1534,7 +2366,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>54</v>
       </c>
@@ -1557,7 +2389,7 @@
         <v>0.16666665673255901</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>55</v>
       </c>
@@ -1580,7 +2412,7 @@
         <v>0.30833333730697599</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>56</v>
       </c>
@@ -1603,7 +2435,7 @@
         <v>0.22916665673255901</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>57</v>
       </c>
@@ -1626,7 +2458,7 @@
         <v>0.46250000596046498</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>58</v>
       </c>
@@ -1649,7 +2481,7 @@
         <v>0.58749997615814198</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>59</v>
       </c>
@@ -1672,7 +2504,7 @@
         <v>0.329166650772095</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>60</v>
       </c>
@@ -1695,7 +2527,7 @@
         <v>0.454166650772095</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>61</v>
       </c>
@@ -1718,7 +2550,7 @@
         <v>0.50833332538604703</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>62</v>
       </c>
@@ -1741,7 +2573,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>63</v>
       </c>
@@ -1764,7 +2596,7 @@
         <v>0.10416667163372</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>64</v>
       </c>
@@ -1787,7 +2619,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>65</v>
       </c>
@@ -1810,7 +2642,7 @@
         <v>0.29166668653488198</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>66</v>
       </c>
@@ -1833,7 +2665,7 @@
         <v>0.420833349227905</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>67</v>
       </c>
@@ -1856,7 +2688,7 @@
         <v>0.43333333730697599</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>68</v>
       </c>
@@ -1879,7 +2711,7 @@
         <v>0.61250001192092896</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>69</v>
       </c>
@@ -1902,7 +2734,7 @@
         <v>0.133333325386047</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>70</v>
       </c>
@@ -1925,7 +2757,7 @@
         <v>0.46666666865348799</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>71</v>
       </c>
@@ -1948,7 +2780,7 @@
         <v>0.47499999403953502</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>72</v>
       </c>
@@ -1971,7 +2803,7 @@
         <v>0.14583332836627999</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>73</v>
       </c>
@@ -1994,7 +2826,7 @@
         <v>4.9999997019767803E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>74</v>
       </c>
@@ -2017,7 +2849,7 @@
         <v>0.34999999403953502</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>75</v>
       </c>
@@ -2040,7 +2872,7 @@
         <v>0.28333333134651201</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>76</v>
       </c>
@@ -2063,7 +2895,7 @@
         <v>0.24583332240581501</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>77</v>
       </c>
@@ -2086,7 +2918,7 @@
         <v>0.17499999701976801</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>78</v>
       </c>
@@ -2109,7 +2941,7 @@
         <v>0.36250001192092901</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>79</v>
       </c>
@@ -2130,32 +2962,6 @@
       </c>
       <c r="G61">
         <v>0.32499998807907099</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <f>AVERAGE(restaurantsSat!B2:B61)</f>
-        <v>0.71458332414428394</v>
-      </c>
-      <c r="C62">
-        <f>AVERAGE(restaurantsSat!C2:C61)</f>
-        <v>0.52819444090127943</v>
-      </c>
-      <c r="D62">
-        <f>AVERAGE(restaurantsSat!D2:D61)</f>
-        <v>0.68034721066554371</v>
-      </c>
-      <c r="E62">
-        <f>AVERAGE(restaurantsSat!E2:E61)</f>
-        <v>0.32618055393298467</v>
-      </c>
-      <c r="F62">
-        <f>AVERAGE(restaurantsSat!F2:F61)</f>
-        <v>0.72868054732680321</v>
-      </c>
-      <c r="G62">
-        <f>AVERAGE(restaurantsSat!G2:G61)</f>
-        <v>0.33826388791203493</v>
       </c>
     </row>
   </sheetData>
@@ -2169,16 +2975,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A63" sqref="A63:C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +2995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>restaurantsSat!B2+restaurantsSat!C2</f>
         <v>1.424999952316284</v>
@@ -2203,7 +3009,7 @@
         <v>0.98749998211860612</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>restaurantsSat!B3+restaurantsSat!C3</f>
         <v>1.1875</v>
@@ -2217,7 +3023,7 @@
         <v>0.77083335816860243</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>restaurantsSat!B4+restaurantsSat!C4</f>
         <v>1.2874999642372131</v>
@@ -2231,7 +3037,7 @@
         <v>1.0083333253860469</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <f>restaurantsSat!B5+restaurantsSat!C5</f>
         <v>1.291666656732559</v>
@@ -2245,7 +3051,7 @@
         <v>0.91666668653488204</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <f>restaurantsSat!B6+restaurantsSat!C6</f>
         <v>1.166666656732559</v>
@@ -2259,7 +3065,7 @@
         <v>1.166666656732559</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <f>restaurantsSat!B7+restaurantsSat!C7</f>
         <v>1.2833333015441901</v>
@@ -2273,7 +3079,7 @@
         <v>1.1833333373069761</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <f>restaurantsSat!B8+restaurantsSat!C8</f>
         <v>1.3708333373069761</v>
@@ -2287,7 +3093,7 @@
         <v>1.037499994039536</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <f>restaurantsSat!B9+restaurantsSat!C9</f>
         <v>1.308333307504653</v>
@@ -2301,7 +3107,7 @@
         <v>1.020833313465118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <f>restaurantsSat!B10+restaurantsSat!C10</f>
         <v>1.2041666656732559</v>
@@ -2315,7 +3121,7 @@
         <v>1.245833307504653</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <f>restaurantsSat!B11+restaurantsSat!C11</f>
         <v>1.208333313465118</v>
@@ -2329,7 +3135,7 @@
         <v>1.270833313465118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <f>restaurantsSat!B12+restaurantsSat!C12</f>
         <v>1.1166666746139531</v>
@@ -2343,7 +3149,7 @@
         <v>0.96666666865348816</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <f>restaurantsSat!B13+restaurantsSat!C13</f>
         <v>1.1166666746139531</v>
@@ -2357,7 +3163,7 @@
         <v>1.1000000238418581</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <f>restaurantsSat!B14+restaurantsSat!C14</f>
         <v>1.1958333253860469</v>
@@ -2371,7 +3177,7 @@
         <v>1.0708333253860469</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <f>restaurantsSat!B15+restaurantsSat!C15</f>
         <v>1.195833325386048</v>
@@ -2385,7 +3191,7 @@
         <v>1.1124999821186059</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>restaurantsSat!B16+restaurantsSat!C16</f>
         <v>0.91250002384185802</v>
@@ -2399,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <f>restaurantsSat!B17+restaurantsSat!C17</f>
         <v>1.4416666626930241</v>
@@ -2413,7 +3219,7 @@
         <v>1.0291666686534879</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <f>restaurantsSat!B18+restaurantsSat!C18</f>
         <v>1.424999952316284</v>
@@ -2427,7 +3233,7 @@
         <v>1.183333307504653</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <f>restaurantsSat!B19+restaurantsSat!C19</f>
         <v>1.3499999642372131</v>
@@ -2441,7 +3247,7 @@
         <v>0.94999997317790996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <f>restaurantsSat!B20+restaurantsSat!C20</f>
         <v>1.145833313465118</v>
@@ -2455,7 +3261,7 @@
         <v>0.95833332836628005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <f>restaurantsSat!B21+restaurantsSat!C21</f>
         <v>1.3208332657814021</v>
@@ -2469,7 +3275,7 @@
         <v>1.104166686534882</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <f>restaurantsSat!B22+restaurantsSat!C22</f>
         <v>1.16666667163372</v>
@@ -2483,7 +3289,7 @@
         <v>1.033333331346511</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <f>restaurantsSat!B23+restaurantsSat!C23</f>
         <v>1.333333313465118</v>
@@ -2497,7 +3303,7 @@
         <v>0.93333330750465393</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <f>restaurantsSat!B24+restaurantsSat!C24</f>
         <v>1.029166623950005</v>
@@ -2511,7 +3317,7 @@
         <v>1.1041666865348811</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <f>restaurantsSat!B25+restaurantsSat!C25</f>
         <v>1.095833361148834</v>
@@ -2525,7 +3331,7 @@
         <v>1.387499988079071</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>restaurantsSat!B26+restaurantsSat!C26</f>
         <v>1.3166666626930241</v>
@@ -2539,7 +3345,7 @@
         <v>1.049999952316284</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <f>restaurantsSat!B27+restaurantsSat!C27</f>
         <v>1.3208333253860469</v>
@@ -2553,7 +3359,7 @@
         <v>1.0708333253860469</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <f>restaurantsSat!B28+restaurantsSat!C28</f>
         <v>1.362499952316284</v>
@@ -2567,7 +3373,7 @@
         <v>0.86666661500930797</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <f>restaurantsSat!B29+restaurantsSat!C29</f>
         <v>1.25</v>
@@ -2581,7 +3387,7 @@
         <v>1.224999994039536</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <f>restaurantsSat!B30+restaurantsSat!C30</f>
         <v>1.2458333224058151</v>
@@ -2595,7 +3401,7 @@
         <v>1.2458333224058151</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <f>restaurantsSat!B31+restaurantsSat!C31</f>
         <v>1.1208333075046539</v>
@@ -2609,7 +3415,7 @@
         <v>1.395833313465118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <f>restaurantsSat!B32+restaurantsSat!C32</f>
         <v>1.020833313465118</v>
@@ -2623,7 +3429,7 @@
         <v>1.104166656732559</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <f>restaurantsSat!B33+restaurantsSat!C33</f>
         <v>1.166666686534882</v>
@@ -2637,7 +3443,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <f>restaurantsSat!B34+restaurantsSat!C34</f>
         <v>1.0708333253860469</v>
@@ -2651,7 +3457,7 @@
         <v>0.94583331048488595</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <f>restaurantsSat!B35+restaurantsSat!C35</f>
         <v>1.25</v>
@@ -2665,7 +3471,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <f>restaurantsSat!B36+restaurantsSat!C36</f>
         <v>1.291666656732559</v>
@@ -2679,7 +3485,7 @@
         <v>1.041666656732559</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <f>restaurantsSat!B37+restaurantsSat!C37</f>
         <v>1.3041666746139531</v>
@@ -2693,7 +3499,7 @@
         <v>0.84583336114883401</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <f>restaurantsSat!B38+restaurantsSat!C38</f>
         <v>1.3291666507720952</v>
@@ -2707,7 +3513,7 @@
         <v>1.17916664481163</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <f>restaurantsSat!B39+restaurantsSat!C39</f>
         <v>1.216666638851166</v>
@@ -2721,7 +3527,7 @@
         <v>1.266666680574418</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <f>restaurantsSat!B40+restaurantsSat!C40</f>
         <v>0.991666659712791</v>
@@ -2735,7 +3541,7 @@
         <v>1.1166666150093079</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <f>restaurantsSat!B41+restaurantsSat!C41</f>
         <v>1.3500000238418579</v>
@@ -2749,7 +3555,7 @@
         <v>1.2666666507720949</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <f>restaurantsSat!B42+restaurantsSat!C42</f>
         <v>1.3083333373069759</v>
@@ -2763,7 +3569,7 @@
         <v>0.91666665673255998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <f>restaurantsSat!B43+restaurantsSat!C43</f>
         <v>1.3374999761581421</v>
@@ -2777,7 +3583,7 @@
         <v>1.0083333253860469</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <f>restaurantsSat!B44+restaurantsSat!C44</f>
         <v>1.229166686534882</v>
@@ -2791,7 +3597,7 @@
         <v>1.083333313465118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <f>restaurantsSat!B45+restaurantsSat!C45</f>
         <v>1.270833313465118</v>
@@ -2805,7 +3611,7 @@
         <v>1.020833298563957</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <f>restaurantsSat!B46+restaurantsSat!C46</f>
         <v>1.1875</v>
@@ -2819,7 +3625,7 @@
         <v>1.208333313465118</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <f>restaurantsSat!B47+restaurantsSat!C47</f>
         <v>1.2624999284744258</v>
@@ -2833,7 +3639,7 @@
         <v>1.074999988079071</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <f>restaurantsSat!B48+restaurantsSat!C48</f>
         <v>1.449999988079071</v>
@@ -2847,7 +3653,7 @@
         <v>1.1083333492279051</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <f>restaurantsSat!B49+restaurantsSat!C49</f>
         <v>1.237500011920929</v>
@@ -2861,7 +3667,7 @@
         <v>1.2291666865348811</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <f>restaurantsSat!B50+restaurantsSat!C50</f>
         <v>1.3208333253860469</v>
@@ -2875,7 +3681,7 @@
         <v>1.0125000178813939</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <f>restaurantsSat!B51+restaurantsSat!C51</f>
         <v>1.3583333492279051</v>
@@ -2889,7 +3695,7 @@
         <v>0.82083332538604703</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <f>restaurantsSat!B52+restaurantsSat!C52</f>
         <v>1.4166666269302359</v>
@@ -2903,7 +3709,7 @@
         <v>1.166666656732559</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <f>restaurantsSat!B53+restaurantsSat!C53</f>
         <v>1.3125</v>
@@ -2917,7 +3723,7 @@
         <v>1.041666656732559</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <f>restaurantsSat!B54+restaurantsSat!C54</f>
         <v>1.312499940395355</v>
@@ -2931,7 +3737,7 @@
         <v>0.93749995529651708</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <f>restaurantsSat!B55+restaurantsSat!C55</f>
         <v>1.495833277702332</v>
@@ -2945,7 +3751,7 @@
         <v>1.0499999970197678</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <f>restaurantsSat!B56+restaurantsSat!C56</f>
         <v>1.0999999940395355</v>
@@ -2959,7 +3765,7 @@
         <v>1.2249999940395351</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <f>restaurantsSat!B57+restaurantsSat!C57</f>
         <v>1.216666638851166</v>
@@ -2973,7 +3779,7 @@
         <v>0.92499998211860701</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <f>restaurantsSat!B58+restaurantsSat!C58</f>
         <v>1.4291666746139531</v>
@@ -2987,7 +3793,7 @@
         <v>0.67083333432674408</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <f>restaurantsSat!B59+restaurantsSat!C59</f>
         <v>1.074999988079071</v>
@@ -3001,7 +3807,7 @@
         <v>1.091666623950005</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <f>restaurantsSat!B60+restaurantsSat!C60</f>
         <v>1.1333333253860469</v>
@@ -3015,7 +3821,7 @@
         <v>1.050000011920929</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <f>restaurantsSat!B61+restaurantsSat!C61</f>
         <v>0.92500001192092896</v>
@@ -3040,20 +3846,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625"/>
-    <col min="2" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="13.27734375"/>
+    <col min="2" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -3065,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3888,7 @@
         <v>1.0669444352388382</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3099,7 +3905,7 @@
         <v>0.14321369075608353</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3113,7 +3919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3127,7 +3933,7 @@
         <v>2.2964000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
